--- a/dessert.xlsx
+++ b/dessert.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tewro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/6634406123_student_chula_ac_th/Documents/Documents/GitHub/Food-Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347C349B-65C4-4C7F-8FAA-F8C583824547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26" x14ac:dyDescent="0.8"/>

--- a/dessert.xlsx
+++ b/dessert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/6634406123_student_chula_ac_th/Documents/Documents/GitHub/Food-Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347C349B-65C4-4C7F-8FAA-F8C583824547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{347C349B-65C4-4C7F-8FAA-F8C583824547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6616A718-CB0B-4103-9915-B920D18AA383}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>protein</t>
   </si>
@@ -132,30 +132,6 @@
   </si>
   <si>
     <t>carbohydrate</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>thai-dessert</t>
-  </si>
-  <si>
-    <t>baked</t>
-  </si>
-  <si>
-    <t>fried</t>
-  </si>
-  <si>
-    <t>small-piece</t>
   </si>
 </sst>
 </file>
@@ -514,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26" x14ac:dyDescent="0.8"/>
@@ -533,7 +509,7 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -552,32 +528,8 @@
       <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -596,32 +548,8 @@
       <c r="F2" s="1">
         <v>37.799999999999997</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -640,32 +568,8 @@
       <c r="F3" s="1">
         <v>42.4</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -684,32 +588,8 @@
       <c r="F4" s="1">
         <v>49.18</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -728,32 +608,8 @@
       <c r="F5" s="1">
         <v>30.77</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -772,32 +628,8 @@
       <c r="F6" s="1">
         <v>76.14</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -816,32 +648,8 @@
       <c r="F7" s="1">
         <v>38</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -860,32 +668,8 @@
       <c r="F8" s="1">
         <v>29</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -904,32 +688,8 @@
       <c r="F9" s="1">
         <v>56.9</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -948,32 +708,8 @@
       <c r="F10" s="1">
         <v>45.9</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -992,32 +728,8 @@
       <c r="F11" s="1">
         <v>26.3</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1036,32 +748,8 @@
       <c r="F12" s="1">
         <v>35.46</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1080,32 +768,8 @@
       <c r="F13" s="1">
         <v>40.67</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1124,32 +788,8 @@
       <c r="F14" s="1">
         <v>47.62</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1168,32 +808,8 @@
       <c r="F15" s="1">
         <v>45.17</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1212,32 +828,8 @@
       <c r="F16" s="1">
         <v>54.88</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1256,32 +848,8 @@
       <c r="F17" s="1">
         <v>34.869999999999997</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1300,32 +868,8 @@
       <c r="F18" s="1">
         <v>59.48</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1344,32 +888,8 @@
       <c r="F19" s="1">
         <v>52.32</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1388,32 +908,8 @@
       <c r="F20" s="1">
         <v>38.83</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1432,32 +928,8 @@
       <c r="F21" s="1">
         <v>25.48</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1476,32 +948,8 @@
       <c r="F22" s="1">
         <v>20.5</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1520,32 +968,8 @@
       <c r="F23" s="1">
         <v>23.3</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1564,32 +988,8 @@
       <c r="F24" s="1">
         <v>25.68</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1608,32 +1008,8 @@
       <c r="F25" s="1">
         <v>45.5</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1652,32 +1028,8 @@
       <c r="F26" s="1">
         <v>18.7</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1695,30 +1047,6 @@
       </c>
       <c r="F27" s="1">
         <v>55.13</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
